--- a/N2.xlsx
+++ b/N2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Nome</t>
   </si>
@@ -25,7 +25,10 @@
     <t>Data de Nascimento</t>
   </si>
   <si>
-    <t>Lala</t>
+    <t>Matheus</t>
+  </si>
+  <si>
+    <t>123</t>
   </si>
 </sst>
 </file>
@@ -33,7 +36,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -408,11 +411,11 @@
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2">
-        <v>321</v>
+      <c r="B2" t="s">
+        <v>4</v>
       </c>
       <c r="C2" s="2">
-        <v>37289</v>
+        <v>37120</v>
       </c>
     </row>
   </sheetData>

--- a/N2.xlsx
+++ b/N2.xlsx
@@ -28,7 +28,7 @@
     <t>Matheus</t>
   </si>
   <si>
-    <t>123</t>
+    <t>Fernando</t>
   </si>
 </sst>
 </file>
@@ -36,7 +36,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD"/>
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -390,7 +390,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -411,10 +411,21 @@
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2">
+        <v>123</v>
+      </c>
+      <c r="C2" s="2">
+        <v>37120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2">
+      <c r="B3">
+        <v>158</v>
+      </c>
+      <c r="C3" s="2">
         <v>37120</v>
       </c>
     </row>
